--- a/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
+++ b/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6F576B-ED35-46E4-B2BA-48A8A0CD8F8F}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26547220-48FD-41C7-BA20-3AB396C78A0B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="780" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_KeywordFramework" sheetId="23" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="314">
   <si>
     <t>GOTOURL</t>
   </si>
@@ -4221,22 +4221,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F96A65-3E86-40E7-8072-E8FF4573C506}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L65"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="17.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="51.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="8.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="17.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="4" width="16.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="16.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F461771-B54A-4E13-A76D-2C0CF066DBA3}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -6423,23 +6423,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="17.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="18.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="14.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="15.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="14.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="14.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="4" width="26.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="4" width="24.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="25.42578125" collapsed="true"/>
-    <col min="17" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -6896,34 +6896,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="28.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="11.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="15" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="15" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
-    <col min="9" max="13" customWidth="true" style="15" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="4" width="28.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
-    <col min="17" max="19" customWidth="true" style="15" width="12.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="15" width="29.7109375" collapsed="true"/>
-    <col min="21" max="25" customWidth="true" style="15" width="12.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="4" width="16.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="29" max="31" customWidth="true" style="15" width="12.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="29.28515625" collapsed="true"/>
-    <col min="33" max="37" customWidth="true" style="15" width="12.5703125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="4" width="33.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="4" width="11.28515625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="4" width="15.42578125" collapsed="true"/>
-    <col min="42" max="43" style="4" width="8.85546875" collapsed="true"/>
-    <col min="44" max="49" style="4" width="8.85546875" collapsed="true"/>
-    <col min="50" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="9" max="13" width="12.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="19" width="12.42578125" style="15" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="21" max="25" width="12.42578125" style="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="29.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="12.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="29.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="37" width="12.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="33.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="15.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="42" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -17234,14 +17232,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="26.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="26.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="27.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="26.0" collapsed="true"/>
-    <col min="8" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -17418,26 +17416,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA67551-36C0-4B16-863A-50AE8CC999D0}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="7.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="62" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="62" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="31" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="2" width="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" style="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -17873,7 +17869,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -17958,16 +17954,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766D81E9-0BF1-46CE-819B-B4BF0FA64039}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="50.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="60" width="22.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" width="50.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" style="60" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20239,8 +20235,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20461,8 +20457,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">

--- a/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
+++ b/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26547220-48FD-41C7-BA20-3AB396C78A0B}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39BE0760-98AA-4FD2-A594-80C5B291B469}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="780" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_KeywordFramework" sheetId="23" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="312">
   <si>
     <t>GOTOURL</t>
   </si>
@@ -969,16 +969,10 @@
     <t>The value of Membership Rewards points for your business could be up to $22,812 when redeemed for Gift Cards, Shop with Points at AmericanExpress.com and Pay with Points at checkout.</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>$1,800,000</t>
   </si>
   <si>
     <t>$250,000</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -4221,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F96A65-3E86-40E7-8072-E8FF4573C506}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -4327,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L3" s="7">
         <v>2</v>
@@ -4359,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L4" s="7">
         <v>3</v>
@@ -4391,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L5" s="7">
         <v>4</v>
@@ -4421,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L6" s="7">
         <v>5</v>
@@ -4453,7 +4447,7 @@
         <v>178</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L7" s="7">
         <v>6</v>
@@ -4483,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L8" s="7">
         <v>7</v>
@@ -4513,7 +4507,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L9" s="7">
         <v>8</v>
@@ -4545,7 +4539,7 @@
         <v>184</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L10" s="7">
         <v>9</v>
@@ -4575,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L11" s="7">
         <v>10</v>
@@ -4605,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L12" s="7">
         <v>11</v>
@@ -4637,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L13" s="7">
         <v>12</v>
@@ -4669,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L14" s="7">
         <v>13</v>
@@ -4701,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L15" s="7">
         <v>14</v>
@@ -4727,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L16" s="7">
         <v>15</v>
@@ -4759,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L17" s="7">
         <v>16</v>
@@ -4789,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L18" s="7">
         <v>17</v>
@@ -4821,7 +4815,7 @@
         <v>184</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L19" s="7">
         <v>18</v>
@@ -4851,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L20" s="7">
         <v>19</v>
@@ -4883,7 +4877,7 @@
         <v>184</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L21" s="7">
         <v>20</v>
@@ -4915,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L22" s="7">
         <v>21</v>
@@ -4947,7 +4941,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L23" s="7">
         <v>22</v>
@@ -4979,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L24" s="7">
         <v>23</v>
@@ -5011,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L25" s="7">
         <v>24</v>
@@ -5041,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L26" s="7">
         <v>25</v>
@@ -5073,7 +5067,7 @@
         <v>184</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L27" s="7">
         <v>26</v>
@@ -5103,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L28" s="7">
         <v>27</v>
@@ -5133,7 +5127,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="L29" s="7">
         <v>28</v>
@@ -6280,7 +6274,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K37:K46 K60:K63 K26:K31 K2:K24">
+  <conditionalFormatting sqref="K37:K46 K60:K63 K2:K31">
     <cfRule type="containsText" dxfId="215" priority="325" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K2)))</formula>
     </cfRule>
@@ -17418,7 +17412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA67551-36C0-4B16-863A-50AE8CC999D0}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17954,8 +17948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766D81E9-0BF1-46CE-819B-B4BF0FA64039}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17994,10 +17988,10 @@
         <v>1800000</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18009,10 +18003,10 @@
         <v>250000</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
+++ b/Test cases/Nitish/VBT_Form_5th October 2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6027B8FB-9C68-4F45-BA66-202E6D02080B}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{62C4F565-2D9B-4B9F-BA68-42B8AB33893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D22F06E-DF35-4AA4-965B-B06245A6E89A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,1255 +1313,7 @@
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="1" xr:uid="{DC89F70D-C8F2-49F5-82C7-D1B747438A1A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="496">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="392">
     <dxf>
       <font>
         <b/>
@@ -7603,7 +6355,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,7 +6885,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="16" t="s">
@@ -9662,106 +8414,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K37:K46 K60:K63 K2:K31">
-    <cfRule type="containsText" dxfId="495" priority="325" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="391" priority="325" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="326" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="390" priority="326" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8">
-    <cfRule type="containsText" dxfId="493" priority="203" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="389" priority="203" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="204" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="388" priority="204" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="491" priority="197" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="387" priority="197" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="198" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="386" priority="198" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="489" priority="195" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="385" priority="195" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="196" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="384" priority="196" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="containsText" dxfId="487" priority="181" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="383" priority="181" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="182" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="382" priority="182" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="containsText" dxfId="485" priority="179" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="381" priority="179" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="180" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="380" priority="180" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="483" priority="177" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="379" priority="177" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="178" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="378" priority="178" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="481" priority="175" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="377" priority="175" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="176" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="376" priority="176" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:K53 K55:K59 K64:K65">
-    <cfRule type="containsText" dxfId="479" priority="167" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="375" priority="167" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="168" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="374" priority="168" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="containsText" dxfId="477" priority="113" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="373" priority="113" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="114" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="372" priority="114" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="containsText" dxfId="475" priority="111" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="371" priority="111" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="112" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="370" priority="112" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="containsText" dxfId="473" priority="109" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="369" priority="109" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="110" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="368" priority="110" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="471" priority="107" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="367" priority="107" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="108" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="366" priority="108" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16244,18 +14996,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="containsText" dxfId="469" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="365" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="364" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7 J2:J7 M2:M7">
-    <cfRule type="containsText" dxfId="467" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="363" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="362" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26260,338 +25012,338 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2 G2 J2 M2 P2 S2 V2 Y2 AB2 AE2 AH2 AK2 AN2 AQ2">
-    <cfRule type="containsText" dxfId="465" priority="201" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="361" priority="201" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="202" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="360" priority="202" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D76 G2:G76 J2:J76 M2:M76 P2:P76 S2:S76 V2:V76 Y2:Y76 AB2:AB76 AE2:AE76 AH2:AH76 AK2:AK76 AN2:AN76 AQ2:AQ76">
-    <cfRule type="containsText" dxfId="463" priority="199" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="359" priority="199" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="200" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="358" priority="200" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D76 G57:G76 J57:J76 M57:M76 P57:P76 S57:S76 V57:V76 Y57:Y76 AB57:AB76 AE57:AE76 AH57:AH76 AK57:AK76 AN57:AN76 AQ57:AQ76">
-    <cfRule type="containsText" dxfId="461" priority="109" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="357" priority="109" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="110" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="356" priority="110" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="459" priority="77" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="355" priority="77" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="78" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="354" priority="78" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G76">
-    <cfRule type="containsText" dxfId="457" priority="75" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="353" priority="75" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="76" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="352" priority="76" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G76">
-    <cfRule type="containsText" dxfId="455" priority="73" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="351" priority="73" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="74" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="350" priority="74" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="453" priority="71" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="349" priority="71" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="72" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="348" priority="72" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J76">
-    <cfRule type="containsText" dxfId="451" priority="69" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="347" priority="69" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="70" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="346" priority="70" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J76">
-    <cfRule type="containsText" dxfId="449" priority="67" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="345" priority="67" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="68" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="344" priority="68" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" dxfId="447" priority="65" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="343" priority="65" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="66" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="342" priority="66" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M76">
-    <cfRule type="containsText" dxfId="445" priority="63" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="341" priority="63" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="64" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="340" priority="64" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:M76">
-    <cfRule type="containsText" dxfId="443" priority="61" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="339" priority="61" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="62" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="338" priority="62" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",M57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="containsText" dxfId="441" priority="59" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="337" priority="59" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="60" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="336" priority="60" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P76">
-    <cfRule type="containsText" dxfId="439" priority="57" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="335" priority="57" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="58" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="334" priority="58" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57:P76">
-    <cfRule type="containsText" dxfId="437" priority="55" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="333" priority="55" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",P57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="56" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="332" priority="56" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="435" priority="53" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="331" priority="53" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="54" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="330" priority="54" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S76">
-    <cfRule type="containsText" dxfId="433" priority="51" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="329" priority="51" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="52" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="328" priority="52" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57:S76">
-    <cfRule type="containsText" dxfId="431" priority="49" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="327" priority="49" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",S57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="50" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="326" priority="50" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",S57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="containsText" dxfId="429" priority="47" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="325" priority="47" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="48" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="324" priority="48" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V76">
-    <cfRule type="containsText" dxfId="427" priority="45" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="323" priority="45" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="46" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="322" priority="46" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V57:V76">
-    <cfRule type="containsText" dxfId="425" priority="43" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="321" priority="43" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",V57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="44" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="320" priority="44" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",V57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="containsText" dxfId="423" priority="41" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="319" priority="41" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="42" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="318" priority="42" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y76">
-    <cfRule type="containsText" dxfId="421" priority="39" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="317" priority="39" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="40" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="316" priority="40" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y57:Y76">
-    <cfRule type="containsText" dxfId="419" priority="37" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="315" priority="37" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",Y57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="38" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="314" priority="38" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",Y57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2">
-    <cfRule type="containsText" dxfId="417" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="313" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="312" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB76">
-    <cfRule type="containsText" dxfId="415" priority="33" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="311" priority="33" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="34" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="310" priority="34" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB57:AB76">
-    <cfRule type="containsText" dxfId="413" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="309" priority="31" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AB57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="308" priority="32" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AB57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2">
-    <cfRule type="containsText" dxfId="411" priority="29" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="307" priority="29" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="30" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="306" priority="30" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE76">
-    <cfRule type="containsText" dxfId="409" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="305" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="304" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE57:AE76">
-    <cfRule type="containsText" dxfId="407" priority="25" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="303" priority="25" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AE57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="26" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="302" priority="26" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AE57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2">
-    <cfRule type="containsText" dxfId="405" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="301" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AH2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="300" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AH2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH76">
-    <cfRule type="containsText" dxfId="403" priority="21" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="299" priority="21" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AH2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="298" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AH2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH57:AH76">
-    <cfRule type="containsText" dxfId="401" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="297" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AH57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="296" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AH57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
-    <cfRule type="containsText" dxfId="399" priority="17" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="295" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AK2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="294" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AK2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK76">
-    <cfRule type="containsText" dxfId="397" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="293" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AK2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="292" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AK2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK57:AK76">
-    <cfRule type="containsText" dxfId="395" priority="13" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="291" priority="13" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="14" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="290" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AK57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2">
-    <cfRule type="containsText" dxfId="393" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="289" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AN2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="288" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AN2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2:AN76">
-    <cfRule type="containsText" dxfId="391" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="287" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AN2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="286" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AN2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN57:AN76">
-    <cfRule type="containsText" dxfId="389" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="285" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="284" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AN57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2">
-    <cfRule type="containsText" dxfId="387" priority="5" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="283" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AQ2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="282" priority="6" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AQ2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AQ76">
-    <cfRule type="containsText" dxfId="385" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="281" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AQ2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="280" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AQ2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ57:AQ76">
-    <cfRule type="containsText" dxfId="383" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="279" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",AQ57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="278" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",AQ57)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26765,26 +25517,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D4 D6:D7">
-    <cfRule type="containsText" dxfId="381" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="277" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="276" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6:G7">
-    <cfRule type="containsText" dxfId="379" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="275" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="274" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="containsText" dxfId="377" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="273" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="272" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27008,130 +25760,130 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I3:I8">
-    <cfRule type="containsText" dxfId="311" priority="25" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="271" priority="25" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="26" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="270" priority="26" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8">
-    <cfRule type="containsText" dxfId="309" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="269" priority="31" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="268" priority="32" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8">
-    <cfRule type="containsText" dxfId="307" priority="29" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="267" priority="29" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="30" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="266" priority="30" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8">
-    <cfRule type="containsText" dxfId="305" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="265" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="264" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="303" priority="17" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="263" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="262" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="301" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="261" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="260" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="299" priority="21" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="259" priority="21" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="258" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="297" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="257" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="256" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="295" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="255" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="254" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="263" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="253" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="252" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="261" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="251" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="250" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="259" priority="13" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="249" priority="13" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="14" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="248" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="257" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="247" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="246" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="253" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="245" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="244" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="251" priority="5" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="243" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="242" priority="6" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="249" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="241" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="240" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
